--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">CONTAD</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">LEITOSDISP_UTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACIENTES_TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">LEITOSTOAL_UTI</t>
@@ -380,6 +383,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -398,6 +404,9 @@
         <v>54</v>
       </c>
       <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="n">
         <v>84</v>
       </c>
     </row>
@@ -418,6 +427,9 @@
         <v>53</v>
       </c>
       <c r="F3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G3" t="n">
         <v>84</v>
       </c>
     </row>
@@ -438,6 +450,9 @@
         <v>53</v>
       </c>
       <c r="F4" t="n">
+        <v>31</v>
+      </c>
+      <c r="G4" t="n">
         <v>84</v>
       </c>
     </row>
@@ -458,6 +473,9 @@
         <v>53</v>
       </c>
       <c r="F5" t="n">
+        <v>31</v>
+      </c>
+      <c r="G5" t="n">
         <v>84</v>
       </c>
     </row>
@@ -478,6 +496,9 @@
         <v>53</v>
       </c>
       <c r="F6" t="n">
+        <v>31</v>
+      </c>
+      <c r="G6" t="n">
         <v>84</v>
       </c>
     </row>
@@ -498,6 +519,9 @@
         <v>53</v>
       </c>
       <c r="F7" t="n">
+        <v>31</v>
+      </c>
+      <c r="G7" t="n">
         <v>84</v>
       </c>
     </row>
@@ -518,6 +542,9 @@
         <v>47</v>
       </c>
       <c r="F8" t="n">
+        <v>37</v>
+      </c>
+      <c r="G8" t="n">
         <v>84</v>
       </c>
     </row>
@@ -538,6 +565,9 @@
         <v>49</v>
       </c>
       <c r="F9" t="n">
+        <v>35</v>
+      </c>
+      <c r="G9" t="n">
         <v>84</v>
       </c>
     </row>
@@ -558,6 +588,9 @@
         <v>51</v>
       </c>
       <c r="F10" t="n">
+        <v>33</v>
+      </c>
+      <c r="G10" t="n">
         <v>84</v>
       </c>
     </row>
@@ -578,6 +611,9 @@
         <v>49</v>
       </c>
       <c r="F11" t="n">
+        <v>35</v>
+      </c>
+      <c r="G11" t="n">
         <v>84</v>
       </c>
     </row>
@@ -598,6 +634,9 @@
         <v>44</v>
       </c>
       <c r="F12" t="n">
+        <v>40</v>
+      </c>
+      <c r="G12" t="n">
         <v>84</v>
       </c>
     </row>
@@ -618,6 +657,9 @@
         <v>44</v>
       </c>
       <c r="F13" t="n">
+        <v>40</v>
+      </c>
+      <c r="G13" t="n">
         <v>84</v>
       </c>
     </row>
@@ -638,6 +680,9 @@
         <v>44</v>
       </c>
       <c r="F14" t="n">
+        <v>40</v>
+      </c>
+      <c r="G14" t="n">
         <v>84</v>
       </c>
     </row>
@@ -658,6 +703,9 @@
         <v>49</v>
       </c>
       <c r="F15" t="n">
+        <v>35</v>
+      </c>
+      <c r="G15" t="n">
         <v>84</v>
       </c>
     </row>
@@ -678,6 +726,32 @@
         <v>41</v>
       </c>
       <c r="F16" t="n">
+        <v>39</v>
+      </c>
+      <c r="G16" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>41</v>
+      </c>
+      <c r="F17" t="n">
+        <v>39</v>
+      </c>
+      <c r="G17" t="n">
         <v>80</v>
       </c>
     </row>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -755,6 +755,29 @@
         <v>80</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>25</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>53</v>
+      </c>
+      <c r="F18" t="n">
+        <v>37</v>
+      </c>
+      <c r="G18" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -778,6 +778,29 @@
         <v>90</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>53</v>
+      </c>
+      <c r="F19" t="n">
+        <v>37</v>
+      </c>
+      <c r="G19" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -801,6 +801,29 @@
         <v>90</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>25</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="n">
+        <v>53</v>
+      </c>
+      <c r="F20" t="n">
+        <v>37</v>
+      </c>
+      <c r="G20" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1,46 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauLo\Google Drive\Marvellous Math\Coding\RStudio\Covid Jlle\Sites\Datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F878FC1-B5B0-41C7-922E-058DE07E475E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UTIJoinville" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="UTIJoinville" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">CONTAD</t>
+    <t>CONTAD</t>
   </si>
   <si>
-    <t xml:space="preserve">CONFIRMADOS_UTI</t>
+    <t>CONFIRMADOS_UTI</t>
   </si>
   <si>
-    <t xml:space="preserve">DESCARTADOS_UTI</t>
+    <t>DESCARTADOS_UTI</t>
   </si>
   <si>
-    <t xml:space="preserve">AGUARDANDO_UTI</t>
+    <t>AGUARDANDO_UTI</t>
   </si>
   <si>
-    <t xml:space="preserve">LEITOSDISP_UTI</t>
+    <t>LEITOSDISP_UTI</t>
   </si>
   <si>
-    <t xml:space="preserve">PACIENTES_TOTAL</t>
+    <t>PACIENTES_TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">LEITOSTOAL_UTI</t>
+    <t>LEITOSTOAL_UTI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -76,6 +83,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -357,14 +373,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,445 +405,468 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>18</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>54</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>30</v>
       </c>
-      <c r="G2" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="G2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>17</v>
       </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
         <v>53</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>31</v>
       </c>
-      <c r="G3" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="G3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>17</v>
       </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
         <v>53</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>31</v>
       </c>
-      <c r="G4" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="G4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>18</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
         <v>53</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>31</v>
       </c>
-      <c r="G5" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="G5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>18</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
         <v>53</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>31</v>
       </c>
-      <c r="G6" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="G6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>18</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
         <v>53</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>31</v>
       </c>
-      <c r="G7" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="G7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>19</v>
       </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
         <v>11</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>47</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>37</v>
       </c>
-      <c r="G8" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="G8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>21</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>49</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>35</v>
       </c>
-      <c r="G9" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="G9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>17</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>14</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>51</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>33</v>
       </c>
-      <c r="G10" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="G10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>17</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>15</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>49</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>35</v>
       </c>
-      <c r="G11" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="G11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>24</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>14</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>44</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>40</v>
       </c>
-      <c r="G12" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="G12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>24</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>14</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>44</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>40</v>
       </c>
-      <c r="G13" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="G13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>24</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>14</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>44</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>40</v>
       </c>
-      <c r="G14" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="G14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>20</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>12</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>49</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>35</v>
       </c>
-      <c r="G15" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="G15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>23</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>11</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>41</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>39</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>80</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>23</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>6</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>10</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>41</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>39</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>80</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>25</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" t="n">
-        <v>7</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
         <v>53</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>37</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>90</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>25</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" t="n">
-        <v>7</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
         <v>53</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>37</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>90</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>25</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" t="n">
-        <v>7</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
         <v>53</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>37</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>37</v>
+      </c>
+      <c r="G21">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1,53 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauLo\Google Drive\Marvellous Math\Coding\RStudio\Covid Jlle\Sites\Datasets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F878FC1-B5B0-41C7-922E-058DE07E475E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="UTIJoinville" sheetId="1" r:id="rId1"/>
+    <sheet name="UTIJoinville" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>CONTAD</t>
+    <t xml:space="preserve">CONTAD</t>
   </si>
   <si>
-    <t>CONFIRMADOS_UTI</t>
+    <t xml:space="preserve">CONFIRMADOS_UTI</t>
   </si>
   <si>
-    <t>DESCARTADOS_UTI</t>
+    <t xml:space="preserve">DESCARTADOS_UTI</t>
   </si>
   <si>
-    <t>AGUARDANDO_UTI</t>
+    <t xml:space="preserve">AGUARDANDO_UTI</t>
   </si>
   <si>
-    <t>LEITOSDISP_UTI</t>
+    <t xml:space="preserve">LEITOSDISP_UTI</t>
   </si>
   <si>
-    <t>PACIENTES_TOTAL</t>
+    <t xml:space="preserve">PACIENTES_TOTAL</t>
   </si>
   <si>
-    <t>LEITOSTOAL_UTI</t>
+    <t xml:space="preserve">LEITOSTOAL_UTI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -83,15 +76,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -373,16 +357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,468 +387,468 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>18</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>54</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>30</v>
       </c>
-      <c r="G2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="G2" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>17</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
         <v>53</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>31</v>
       </c>
-      <c r="G3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="G3" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>17</v>
       </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
         <v>53</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>31</v>
       </c>
-      <c r="G4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="G4" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>18</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
         <v>53</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>31</v>
       </c>
-      <c r="G5">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="G5" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
         <v>53</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>31</v>
       </c>
-      <c r="G6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="G6" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
         <v>53</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>31</v>
       </c>
-      <c r="G7">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
+      <c r="G7" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
         <v>19</v>
       </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
         <v>11</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>47</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>37</v>
       </c>
-      <c r="G8">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="G8" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>21</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>49</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>35</v>
       </c>
-      <c r="G9">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="G9" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>17</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>14</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>51</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>33</v>
       </c>
-      <c r="G10">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="G10" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>15</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>49</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>35</v>
       </c>
-      <c r="G11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="G11" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>24</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>14</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>44</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>40</v>
       </c>
-      <c r="G12">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="G12" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>24</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>14</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>44</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>40</v>
       </c>
-      <c r="G13">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="G13" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>24</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>14</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>44</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>40</v>
       </c>
-      <c r="G14">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="G14" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>12</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>49</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>35</v>
       </c>
-      <c r="G15">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="G15" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>23</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>11</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>41</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>39</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>23</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>10</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>41</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>39</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>25</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
         <v>53</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>37</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>25</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="n">
         <v>53</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>37</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>25</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="n">
         <v>53</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>37</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>53</v>
-      </c>
-      <c r="F21">
-        <v>37</v>
-      </c>
-      <c r="G21">
+      <c r="B21" t="n">
+        <v>30</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>28</v>
+      </c>
+      <c r="E21" t="n">
+        <v>32</v>
+      </c>
+      <c r="F21" t="n">
+        <v>58</v>
+      </c>
+      <c r="G21" t="n">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -847,6 +847,52 @@
         <v>90</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>28</v>
+      </c>
+      <c r="E22" t="n">
+        <v>30</v>
+      </c>
+      <c r="F22" t="n">
+        <v>60</v>
+      </c>
+      <c r="G22" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>27</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>29</v>
+      </c>
+      <c r="E23" t="n">
+        <v>34</v>
+      </c>
+      <c r="F23" t="n">
+        <v>56</v>
+      </c>
+      <c r="G23" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -893,6 +893,52 @@
         <v>90</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>26</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25</v>
+      </c>
+      <c r="E24" t="n">
+        <v>39</v>
+      </c>
+      <c r="F24" t="n">
+        <v>51</v>
+      </c>
+      <c r="G24" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>26</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>27</v>
+      </c>
+      <c r="E25" t="n">
+        <v>36</v>
+      </c>
+      <c r="F25" t="n">
+        <v>54</v>
+      </c>
+      <c r="G25" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -939,6 +939,29 @@
         <v>90</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>26</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>27</v>
+      </c>
+      <c r="E26" t="n">
+        <v>36</v>
+      </c>
+      <c r="F26" t="n">
+        <v>54</v>
+      </c>
+      <c r="G26" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -962,6 +962,29 @@
         <v>90</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>27</v>
+      </c>
+      <c r="E27" t="n">
+        <v>36</v>
+      </c>
+      <c r="F27" t="n">
+        <v>54</v>
+      </c>
+      <c r="G27" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -985,6 +985,29 @@
         <v>90</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>28</v>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="n">
+        <v>16</v>
+      </c>
+      <c r="E28" t="n">
+        <v>31</v>
+      </c>
+      <c r="F28" t="n">
+        <v>59</v>
+      </c>
+      <c r="G28" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1,46 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauLo\Google Drive\Marvellous Math\Coding\RStudio\Covid Jlle\Sites\Datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D78C60-DC87-435F-A227-CA50CF23CE26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UTIJoinville" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="UTIJoinville" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">CONTAD</t>
+    <t>CONTAD</t>
   </si>
   <si>
-    <t xml:space="preserve">CONFIRMADOS_UTI</t>
+    <t>CONFIRMADOS_UTI</t>
   </si>
   <si>
-    <t xml:space="preserve">DESCARTADOS_UTI</t>
+    <t>DESCARTADOS_UTI</t>
   </si>
   <si>
-    <t xml:space="preserve">AGUARDANDO_UTI</t>
+    <t>AGUARDANDO_UTI</t>
   </si>
   <si>
-    <t xml:space="preserve">LEITOSDISP_UTI</t>
+    <t>LEITOSDISP_UTI</t>
   </si>
   <si>
-    <t xml:space="preserve">PACIENTES_TOTAL</t>
+    <t>PACIENTES_TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">LEITOSTOAL_UTI</t>
+    <t>LEITOSTOAL_UTI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -76,6 +93,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -357,14 +383,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,629 +419,677 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>18</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>54</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>30</v>
       </c>
-      <c r="G2" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="G2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>17</v>
       </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
         <v>53</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>31</v>
       </c>
-      <c r="G3" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="G3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>17</v>
       </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
         <v>53</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>31</v>
       </c>
-      <c r="G4" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="G4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>18</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
         <v>53</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>31</v>
       </c>
-      <c r="G5" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="G5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>18</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
         <v>53</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>31</v>
       </c>
-      <c r="G6" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="G6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>18</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
         <v>53</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>31</v>
       </c>
-      <c r="G7" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="G7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>19</v>
       </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
         <v>11</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>47</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>37</v>
       </c>
-      <c r="G8" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="G8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>21</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>49</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>35</v>
       </c>
-      <c r="G9" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="G9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>17</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>14</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>51</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>33</v>
       </c>
-      <c r="G10" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="G10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>17</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>15</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>49</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>35</v>
       </c>
-      <c r="G11" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="G11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>24</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>14</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>44</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>40</v>
       </c>
-      <c r="G12" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="G12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>24</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>14</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>44</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>40</v>
       </c>
-      <c r="G13" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="G13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>24</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>14</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>44</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>40</v>
       </c>
-      <c r="G14" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="G14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>20</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>12</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>49</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>35</v>
       </c>
-      <c r="G15" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="G15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>23</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>11</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>41</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>39</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>80</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>23</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>6</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>10</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>41</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>39</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>80</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>25</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" t="n">
-        <v>7</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
         <v>53</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>37</v>
       </c>
-      <c r="G18" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="G18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>25</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" t="n">
-        <v>7</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
         <v>53</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>37</v>
       </c>
-      <c r="G19" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="G19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>25</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" t="n">
-        <v>7</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
         <v>53</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>37</v>
       </c>
-      <c r="G20" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="G20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>30</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>28</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>32</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>58</v>
       </c>
-      <c r="G21" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="G21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>28</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>28</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>30</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>60</v>
       </c>
-      <c r="G22" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="G22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>27</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>29</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>34</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>56</v>
       </c>
-      <c r="G23" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="G23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>26</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>25</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>39</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>51</v>
       </c>
-      <c r="G24" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="G24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>26</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>27</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>36</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>54</v>
       </c>
-      <c r="G25" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="G25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>26</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>27</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>36</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>54</v>
       </c>
-      <c r="G26" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="G26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>27</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>36</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>54</v>
       </c>
-      <c r="G27" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="G27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>28</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>15</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>16</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>31</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>59</v>
       </c>
-      <c r="G28" t="n">
-        <v>90</v>
+      <c r="G28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>32</v>
+      </c>
+      <c r="F29">
+        <f>B29+C29+D29</f>
+        <v>58</v>
+      </c>
+      <c r="G29">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <f>B30+C30+D30</f>
+        <v>59</v>
+      </c>
+      <c r="G30">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1,63 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauLo\Google Drive\Marvellous Math\Coding\RStudio\Covid Jlle\Sites\Datasets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D78C60-DC87-435F-A227-CA50CF23CE26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="UTIJoinville" sheetId="1" r:id="rId1"/>
+    <sheet name="UTIJoinville" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>CONTAD</t>
+    <t xml:space="preserve">CONTAD</t>
   </si>
   <si>
-    <t>CONFIRMADOS_UTI</t>
+    <t xml:space="preserve">CONFIRMADOS_UTI</t>
   </si>
   <si>
-    <t>DESCARTADOS_UTI</t>
+    <t xml:space="preserve">DESCARTADOS_UTI</t>
   </si>
   <si>
-    <t>AGUARDANDO_UTI</t>
+    <t xml:space="preserve">AGUARDANDO_UTI</t>
   </si>
   <si>
-    <t>LEITOSDISP_UTI</t>
+    <t xml:space="preserve">LEITOSDISP_UTI</t>
   </si>
   <si>
-    <t>PACIENTES_TOTAL</t>
+    <t xml:space="preserve">PACIENTES_TOTAL</t>
   </si>
   <si>
-    <t>LEITOSTOAL_UTI</t>
+    <t xml:space="preserve">LEITOSTOAL_UTI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -93,15 +76,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -383,20 +357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,677 +387,698 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>18</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>54</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>30</v>
       </c>
-      <c r="G2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="G2" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>17</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
         <v>53</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>31</v>
       </c>
-      <c r="G3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="G3" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>17</v>
       </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
         <v>53</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>31</v>
       </c>
-      <c r="G4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="G4" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>18</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
         <v>53</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>31</v>
       </c>
-      <c r="G5">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="G5" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
         <v>53</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>31</v>
       </c>
-      <c r="G6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="G6" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
         <v>53</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>31</v>
       </c>
-      <c r="G7">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
+      <c r="G7" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
         <v>19</v>
       </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
         <v>11</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>47</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>37</v>
       </c>
-      <c r="G8">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="G8" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>21</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>49</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>35</v>
       </c>
-      <c r="G9">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="G9" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>17</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>14</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>51</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>33</v>
       </c>
-      <c r="G10">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="G10" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>15</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>49</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>35</v>
       </c>
-      <c r="G11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="G11" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>24</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>14</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>44</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>40</v>
       </c>
-      <c r="G12">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="G12" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>24</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>14</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>44</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>40</v>
       </c>
-      <c r="G13">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="G13" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>24</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>14</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>44</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>40</v>
       </c>
-      <c r="G14">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="G14" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>12</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>49</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>35</v>
       </c>
-      <c r="G15">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="G15" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>23</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>11</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>41</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>39</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>23</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>10</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>41</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>39</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>25</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
         <v>53</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>37</v>
       </c>
-      <c r="G18">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="G18" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>25</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="n">
         <v>53</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>37</v>
       </c>
-      <c r="G19">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="G19" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>25</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="n">
         <v>53</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>37</v>
       </c>
-      <c r="G20">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="G20" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>30</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>28</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>32</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>58</v>
       </c>
-      <c r="G21">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="G21" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>28</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>4</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>28</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>30</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>60</v>
       </c>
-      <c r="G22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="G22" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>27</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>29</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>34</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>56</v>
       </c>
-      <c r="G23">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="G23" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>26</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>25</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>39</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>51</v>
       </c>
-      <c r="G24">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="G24" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>26</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>27</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>36</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>54</v>
       </c>
-      <c r="G25">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="G25" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>26</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>27</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>36</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>54</v>
       </c>
-      <c r="G26">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="G26" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>1</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>27</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>36</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>54</v>
       </c>
-      <c r="G27">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="G27" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>28</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>15</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>16</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>31</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>59</v>
       </c>
-      <c r="G28">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="G28" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>27</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>14</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>17</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>32</v>
       </c>
-      <c r="F29">
-        <f>B29+C29+D29</f>
+      <c r="F29" t="n">
         <v>58</v>
       </c>
-      <c r="G29">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="G29" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>13</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>17</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>34</v>
       </c>
-      <c r="F30">
-        <f>B30+C30+D30</f>
+      <c r="F30" t="n">
         <v>59</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>33</v>
+      </c>
+      <c r="C31" t="n">
+        <v>11</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14</v>
+      </c>
+      <c r="E31" t="n">
+        <v>35</v>
+      </c>
+      <c r="F31" t="n">
+        <v>58</v>
+      </c>
+      <c r="G31" t="n">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1077,6 +1077,29 @@
         <v>93</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>33</v>
+      </c>
+      <c r="C32" t="n">
+        <v>11</v>
+      </c>
+      <c r="D32" t="n">
+        <v>13</v>
+      </c>
+      <c r="E32" t="n">
+        <v>37</v>
+      </c>
+      <c r="F32" t="n">
+        <v>57</v>
+      </c>
+      <c r="G32" t="n">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1100,6 +1100,29 @@
         <v>94</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>33</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11</v>
+      </c>
+      <c r="D33" t="n">
+        <v>13</v>
+      </c>
+      <c r="E33" t="n">
+        <v>37</v>
+      </c>
+      <c r="F33" t="n">
+        <v>57</v>
+      </c>
+      <c r="G33" t="n">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1123,6 +1123,29 @@
         <v>94</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>11</v>
+      </c>
+      <c r="D34" t="n">
+        <v>13</v>
+      </c>
+      <c r="E34" t="n">
+        <v>37</v>
+      </c>
+      <c r="F34" t="n">
+        <v>57</v>
+      </c>
+      <c r="G34" t="n">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1146,6 +1146,52 @@
         <v>94</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>37</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10</v>
+      </c>
+      <c r="D35" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" t="n">
+        <v>17</v>
+      </c>
+      <c r="F35" t="n">
+        <v>67</v>
+      </c>
+      <c r="G35" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>42</v>
+      </c>
+      <c r="C36" t="n">
+        <v>11</v>
+      </c>
+      <c r="D36" t="n">
+        <v>14</v>
+      </c>
+      <c r="E36" t="n">
+        <v>24</v>
+      </c>
+      <c r="F36" t="n">
+        <v>67</v>
+      </c>
+      <c r="G36" t="n">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1192,6 +1192,29 @@
         <v>91</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>46</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>16</v>
+      </c>
+      <c r="E37" t="n">
+        <v>20</v>
+      </c>
+      <c r="F37" t="n">
+        <v>71</v>
+      </c>
+      <c r="G37" t="n">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1215,6 +1215,29 @@
         <v>91</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>43</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>15</v>
+      </c>
+      <c r="E38" t="n">
+        <v>24</v>
+      </c>
+      <c r="F38" t="n">
+        <v>67</v>
+      </c>
+      <c r="G38" t="n">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1238,6 +1238,29 @@
         <v>91</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>51</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9</v>
+      </c>
+      <c r="D39" t="n">
+        <v>14</v>
+      </c>
+      <c r="E39" t="n">
+        <v>17</v>
+      </c>
+      <c r="F39" t="n">
+        <v>74</v>
+      </c>
+      <c r="G39" t="n">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1261,6 +1261,52 @@
         <v>91</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>51</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9</v>
+      </c>
+      <c r="D40" t="n">
+        <v>14</v>
+      </c>
+      <c r="E40" t="n">
+        <v>17</v>
+      </c>
+      <c r="F40" t="n">
+        <v>74</v>
+      </c>
+      <c r="G40" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>51</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9</v>
+      </c>
+      <c r="D41" t="n">
+        <v>14</v>
+      </c>
+      <c r="E41" t="n">
+        <v>17</v>
+      </c>
+      <c r="F41" t="n">
+        <v>74</v>
+      </c>
+      <c r="G41" t="n">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1307,6 +1307,29 @@
         <v>91</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>62</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>13</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20</v>
+      </c>
+      <c r="F42" t="n">
+        <v>76</v>
+      </c>
+      <c r="G42" t="n">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1330,6 +1330,29 @@
         <v>96</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>67</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>20</v>
+      </c>
+      <c r="F43" t="n">
+        <v>77</v>
+      </c>
+      <c r="G43" t="n">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1353,6 +1353,29 @@
         <v>97</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>68</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>23</v>
+      </c>
+      <c r="F44" t="n">
+        <v>77</v>
+      </c>
+      <c r="G44" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1376,6 +1376,29 @@
         <v>100</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>63</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>25</v>
+      </c>
+      <c r="F45" t="n">
+        <v>75</v>
+      </c>
+      <c r="G45" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1399,6 +1399,29 @@
         <v>100</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>62</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>12</v>
+      </c>
+      <c r="E46" t="n">
+        <v>29</v>
+      </c>
+      <c r="F46" t="n">
+        <v>76</v>
+      </c>
+      <c r="G46" t="n">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1422,6 +1422,75 @@
         <v>105</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>62</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>12</v>
+      </c>
+      <c r="E47" t="n">
+        <v>29</v>
+      </c>
+      <c r="F47" t="n">
+        <v>76</v>
+      </c>
+      <c r="G47" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>62</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>12</v>
+      </c>
+      <c r="E48" t="n">
+        <v>29</v>
+      </c>
+      <c r="F48" t="n">
+        <v>76</v>
+      </c>
+      <c r="G48" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>12</v>
+      </c>
+      <c r="E49" t="n">
+        <v>20</v>
+      </c>
+      <c r="F49" t="n">
+        <v>90</v>
+      </c>
+      <c r="G49" t="n">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1491,6 +1491,29 @@
         <v>110</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>82</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>11</v>
+      </c>
+      <c r="E50" t="n">
+        <v>20</v>
+      </c>
+      <c r="F50" t="n">
+        <v>93</v>
+      </c>
+      <c r="G50" t="n">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1514,6 +1514,29 @@
         <v>113</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>85</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="n">
+        <v>22</v>
+      </c>
+      <c r="F51" t="n">
+        <v>96</v>
+      </c>
+      <c r="G51" t="n">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1537,6 +1537,29 @@
         <v>118</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>82</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>11</v>
+      </c>
+      <c r="E52" t="n">
+        <v>24</v>
+      </c>
+      <c r="F52" t="n">
+        <v>94</v>
+      </c>
+      <c r="G52" t="n">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_UTICOVID_hoje.xlsx
+++ b/Datasets/JLLE_UTICOVID_hoje.xlsx
@@ -1560,6 +1560,29 @@
         <v>118</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>84</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>11</v>
+      </c>
+      <c r="E53" t="n">
+        <v>22</v>
+      </c>
+      <c r="F53" t="n">
+        <v>96</v>
+      </c>
+      <c r="G53" t="n">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
